--- a/tests/nrt4/input_nrt4.xlsx
+++ b/tests/nrt4/input_nrt4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD43C75-6C43-4D83-BF42-29ECAC4C4CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE294C68-723E-4C97-876E-43D0C3B2E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>babies</t>
   </si>
   <si>
-    <t>babies_potential</t>
-  </si>
-  <si>
     <t>old_alloc_list</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>treatment</t>
+  </si>
+  <si>
+    <t>babies_service</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,18 +510,18 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -552,12 +552,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -577,12 +577,12 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -662,7 +662,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -671,22 +671,22 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -879,7 +879,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -936,10 +936,10 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +983,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tests/nrt4/input_nrt4.xlsx
+++ b/tests/nrt4/input_nrt4.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VS5997\src\neonat\tests\nrt4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE294C68-723E-4C97-876E-43D0C3B2E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D75896D-06A0-41F0-BF08-F6C84E5A46BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="babies" sheetId="2" r:id="rId1"/>
-    <sheet name="rooms" sheetId="3" r:id="rId2"/>
+    <sheet name="beds" sheetId="3" r:id="rId2"/>
     <sheet name="services" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -62,15 +62,9 @@
     <t>r7</t>
   </si>
   <si>
-    <t>new_rooms_service</t>
-  </si>
-  <si>
     <t>out</t>
   </si>
   <si>
-    <t>old_rooms</t>
-  </si>
-  <si>
     <t>r8</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>r10</t>
   </si>
   <si>
-    <t>new_rooms</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -95,18 +86,9 @@
     <t>going_out</t>
   </si>
   <si>
-    <t>old_rooms_service</t>
-  </si>
-  <si>
     <t>leave_hospital</t>
   </si>
   <si>
-    <t>rooms_capacities</t>
-  </si>
-  <si>
-    <t>all_rooms</t>
-  </si>
-  <si>
     <t>bb1</t>
   </si>
   <si>
@@ -159,6 +141,24 @@
   </si>
   <si>
     <t>babies_service</t>
+  </si>
+  <si>
+    <t>all_beds</t>
+  </si>
+  <si>
+    <t>new_beds</t>
+  </si>
+  <si>
+    <t>old_beds</t>
+  </si>
+  <si>
+    <t>new_beds_service</t>
+  </si>
+  <si>
+    <t>old_beds_service</t>
+  </si>
+  <si>
+    <t>beds_capacities</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF5F45-CFAD-4E61-9970-5F5BE534E7C0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -507,21 +507,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -552,12 +552,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -577,12 +577,12 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -604,35 +604,35 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE173FA1-E983-499D-AB64-6CD8215CA3C5}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,31 +662,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -694,10 +694,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -717,10 +717,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -737,10 +737,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -757,10 +757,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -780,10 +780,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -800,10 +800,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -820,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -851,10 +851,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -879,10 +879,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -896,10 +896,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -930,16 +930,16 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +983,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
